--- a/store/misc/boutiques.xlsx
+++ b/store/misc/boutiques.xlsx
@@ -30059,10 +30059,10 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A414" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B414" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A414" activeCellId="0" sqref="A414"/>
-      <selection pane="topRight" activeCell="C446" activeCellId="0" sqref="C446"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A549" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B549" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A549" activeCellId="0" sqref="A549"/>
+      <selection pane="topRight" activeCell="C583" activeCellId="0" sqref="C583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -53861,7 +53861,7 @@
         <v>2016</v>
       </c>
       <c r="C582" s="5" t="s">
-        <v>1299</v>
+        <v>1017</v>
       </c>
       <c r="D582" s="5" t="s">
         <v>1222</v>
